--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -12,7 +12,7 @@
     <sheet name="source" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey_results!$E$1:$N$353</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey_results!$E$1:$O$353</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="540">
   <si>
     <t xml:space="preserve">Preferred provider organization (PPO) </t>
   </si>
@@ -1623,6 +1623,27 @@
   </si>
   <si>
     <t>financial</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>survey_results</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>Selected benefits to highlight</t>
+  </si>
+  <si>
+    <t>Full benefits survey results</t>
+  </si>
+  <si>
+    <t>Society for Human Resource Management</t>
   </si>
 </sst>
 </file>
@@ -2647,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N353"/>
+  <dimension ref="A1:O353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F64" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2659,11 +2680,11 @@
     <col min="5" max="5" width="57.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="38.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="38.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1">
+    <row r="1" spans="1:15" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>521</v>
       </c>
@@ -2700,14 +2721,17 @@
       <c r="L1" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="B2" s="2" t="s">
         <v>375</v>
       </c>
@@ -2735,8 +2759,12 @@
       <c r="L2" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="M2" s="5">
+        <f>L2-H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="B3" s="2" t="s">
         <v>375</v>
       </c>
@@ -2764,8 +2792,12 @@
       <c r="L3" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="28">
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M66" si="0">L3-H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="B4" s="2" t="s">
         <v>375</v>
       </c>
@@ -2793,8 +2825,12 @@
       <c r="L4" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="B5" s="2" t="s">
         <v>375</v>
       </c>
@@ -2822,8 +2858,12 @@
       <c r="L5" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="B6" s="2" t="s">
         <v>375</v>
       </c>
@@ -2851,8 +2891,12 @@
       <c r="L6" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="B7" s="2" t="s">
         <v>375</v>
       </c>
@@ -2880,8 +2924,12 @@
       <c r="L7" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="B8" s="2" t="s">
         <v>375</v>
       </c>
@@ -2909,8 +2957,12 @@
       <c r="L8" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="28">
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
         <v>522</v>
       </c>
@@ -2944,11 +2996,15 @@
       <c r="L9" s="5">
         <v>0.18</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28">
+    <row r="10" spans="1:15">
       <c r="B10" s="2" t="s">
         <v>375</v>
       </c>
@@ -2976,8 +3032,12 @@
       <c r="L10" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="28">
+      <c r="M10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="B11" s="2" t="s">
         <v>375</v>
       </c>
@@ -3005,8 +3065,12 @@
       <c r="L11" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="M11" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="28">
       <c r="B12" s="2" t="s">
         <v>375</v>
       </c>
@@ -3034,11 +3098,15 @@
       <c r="L12" s="5">
         <v>0.06</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="M12" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.03</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="B13" s="2" t="s">
         <v>375</v>
       </c>
@@ -3066,8 +3134,12 @@
       <c r="L13" s="5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="6" t="s">
         <v>522</v>
       </c>
@@ -3101,8 +3173,12 @@
       <c r="L14" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="56">
+      <c r="M14" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="B15" s="2" t="s">
         <v>375</v>
       </c>
@@ -3130,8 +3206,12 @@
       <c r="L15" s="5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="28">
+      <c r="M15" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="B16" s="2" t="s">
         <v>375</v>
       </c>
@@ -3159,11 +3239,15 @@
       <c r="L16" s="5">
         <v>0.1</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="M16" s="5">
+        <f t="shared" si="0"/>
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="B17" s="2" t="s">
         <v>375</v>
       </c>
@@ -3191,8 +3275,12 @@
       <c r="L17" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="M17" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="B18" s="2" t="s">
         <v>375</v>
       </c>
@@ -3220,8 +3308,12 @@
       <c r="L18" s="5">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="M18" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="B19" s="2" t="s">
         <v>375</v>
       </c>
@@ -3249,8 +3341,12 @@
       <c r="L19" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="M19" s="5">
+        <f t="shared" si="0"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="B20" s="2" t="s">
         <v>375</v>
       </c>
@@ -3278,8 +3374,12 @@
       <c r="L20" s="5">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="M20" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="28">
       <c r="B21" s="2" t="s">
         <v>375</v>
       </c>
@@ -3307,11 +3407,15 @@
       <c r="L21" s="5">
         <v>0.11</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="M21" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000013E-2</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="28">
+    <row r="22" spans="1:15">
       <c r="B22" s="2" t="s">
         <v>375</v>
       </c>
@@ -3339,8 +3443,12 @@
       <c r="L22" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="28">
+      <c r="M22" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="6" t="s">
         <v>522</v>
       </c>
@@ -3374,8 +3482,12 @@
       <c r="L23" s="5">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="28">
+      <c r="M23" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="B24" s="2" t="s">
         <v>375</v>
       </c>
@@ -3403,8 +3515,12 @@
       <c r="L24" s="5">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="28">
+      <c r="M24" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="42">
       <c r="B25" s="2" t="s">
         <v>375</v>
       </c>
@@ -3432,11 +3548,15 @@
       <c r="L25" s="5">
         <v>0.2</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="M25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="28">
+    <row r="26" spans="1:15">
       <c r="A26" s="6" t="s">
         <v>522</v>
       </c>
@@ -3470,8 +3590,12 @@
       <c r="L26" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="28">
+      <c r="M26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="6" t="s">
         <v>522</v>
       </c>
@@ -3505,11 +3629,15 @@
       <c r="L27" s="5">
         <v>0.31</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="M27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="28">
+    <row r="28" spans="1:15">
       <c r="B28" s="2" t="s">
         <v>375</v>
       </c>
@@ -3537,8 +3665,12 @@
       <c r="L28" s="5">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="28">
+      <c r="M28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="42">
       <c r="A29" s="6" t="s">
         <v>522</v>
       </c>
@@ -3572,11 +3704,15 @@
       <c r="L29" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="M29" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="28">
+    <row r="30" spans="1:15" ht="28">
       <c r="A30" s="6" t="s">
         <v>522</v>
       </c>
@@ -3610,11 +3746,15 @@
       <c r="L30" s="5">
         <v>0.12</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="M30" s="5">
+        <f t="shared" si="0"/>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="28">
+    <row r="31" spans="1:15">
       <c r="A31" s="6" t="s">
         <v>522</v>
       </c>
@@ -3648,8 +3788,12 @@
       <c r="L31" s="5">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="28">
+      <c r="M31" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="B32" s="2" t="s">
         <v>375</v>
       </c>
@@ -3677,8 +3821,12 @@
       <c r="L32" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="28">
+      <c r="M32" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="6" t="s">
         <v>522</v>
       </c>
@@ -3709,8 +3857,12 @@
       <c r="L33" s="5">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="28">
+      <c r="M33" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="42">
       <c r="A34" s="6" t="s">
         <v>522</v>
       </c>
@@ -3744,11 +3896,15 @@
       <c r="L34" s="5">
         <v>0.36</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="M34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="28">
+    <row r="35" spans="1:15" ht="28">
       <c r="B35" s="2" t="s">
         <v>375</v>
       </c>
@@ -3776,14 +3932,18 @@
       <c r="L35" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="5">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="N35" s="2">
         <v>2016</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="28">
+    <row r="36" spans="1:15" ht="42">
       <c r="A36" s="6" t="s">
         <v>522</v>
       </c>
@@ -3817,11 +3977,15 @@
       <c r="L36" s="5">
         <v>0.34</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="M36" s="5">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="28">
+    <row r="37" spans="1:15" ht="28">
       <c r="B37" s="2" t="s">
         <v>375</v>
       </c>
@@ -3849,11 +4013,15 @@
       <c r="L37" s="5">
         <v>0.23</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="M37" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.03</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="28">
+    <row r="38" spans="1:15">
       <c r="A38" s="6" t="s">
         <v>522</v>
       </c>
@@ -3887,8 +4055,12 @@
       <c r="L38" s="5">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="28">
+      <c r="M38" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="B39" s="2" t="s">
         <v>375</v>
       </c>
@@ -3916,8 +4088,12 @@
       <c r="L39" s="5">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="28">
+      <c r="M39" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="6" t="s">
         <v>522</v>
       </c>
@@ -3951,8 +4127,12 @@
       <c r="L40" s="5">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="28">
+      <c r="M40" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="B41" s="2" t="s">
         <v>375</v>
       </c>
@@ -3980,14 +4160,18 @@
       <c r="L41" s="5">
         <v>0.23</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="5">
+        <f t="shared" si="0"/>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="N41" s="2">
         <v>2017</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:15" ht="28">
       <c r="B42" s="2" t="s">
         <v>375</v>
       </c>
@@ -4015,11 +4199,15 @@
       <c r="L42" s="5">
         <v>0.31</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="M42" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.999999999999998E-2</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="28">
+    <row r="43" spans="1:15">
       <c r="B43" s="2" t="s">
         <v>375</v>
       </c>
@@ -4047,14 +4235,18 @@
       <c r="L43" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.9999999999999951E-2</v>
+      </c>
+      <c r="N43" s="2">
         <v>2016</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="28">
+    <row r="44" spans="1:15">
       <c r="A44" s="6" t="s">
         <v>522</v>
       </c>
@@ -4088,8 +4280,12 @@
       <c r="L44" s="5">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="42">
+      <c r="M44" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="6" t="s">
         <v>522</v>
       </c>
@@ -4123,8 +4319,12 @@
       <c r="L45" s="5">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="M45" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="6" t="s">
         <v>522</v>
       </c>
@@ -4158,8 +4358,12 @@
       <c r="L46" s="5">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="M46" s="5">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="B47" s="2" t="s">
         <v>375</v>
       </c>
@@ -4190,8 +4394,12 @@
       <c r="L47" s="5">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="M47" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="B48" s="2" t="s">
         <v>375</v>
       </c>
@@ -4219,11 +4427,15 @@
       <c r="L48" s="5">
         <v>0.45</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="M48" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="28">
+    <row r="49" spans="1:15">
       <c r="B49" s="2" t="s">
         <v>375</v>
       </c>
@@ -4251,8 +4463,12 @@
       <c r="L49" s="5">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="M49" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="B50" s="2" t="s">
         <v>375</v>
       </c>
@@ -4280,8 +4496,12 @@
       <c r="L50" s="5">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="M50" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="B51" s="2" t="s">
         <v>375</v>
       </c>
@@ -4309,11 +4529,15 @@
       <c r="L51" s="5">
         <v>0.46</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="M51" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.9999999999999971E-2</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="28">
+    <row r="52" spans="1:15">
       <c r="B52" s="2" t="s">
         <v>375</v>
       </c>
@@ -4341,8 +4565,12 @@
       <c r="L52" s="5">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="28">
+      <c r="M52" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="B53" s="2" t="s">
         <v>375</v>
       </c>
@@ -4370,8 +4598,12 @@
       <c r="L53" s="5">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="56">
+      <c r="M53" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="28">
       <c r="B54" s="2" t="s">
         <v>375</v>
       </c>
@@ -4399,8 +4631,12 @@
       <c r="L54" s="5">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="56">
+      <c r="M54" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9999999999998979E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="6" t="s">
         <v>522</v>
       </c>
@@ -4434,8 +4670,12 @@
       <c r="L55" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="28">
+      <c r="M55" s="5">
+        <f t="shared" si="0"/>
+        <v>-8.9999999999999969E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="6" t="s">
         <v>522</v>
       </c>
@@ -4469,8 +4709,12 @@
       <c r="L56" s="5">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="42">
+      <c r="M56" s="5">
+        <f t="shared" si="0"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="28">
       <c r="A57" s="6" t="s">
         <v>522</v>
       </c>
@@ -4504,11 +4748,15 @@
       <c r="L57" s="5">
         <v>0.54</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="M57" s="5">
+        <f t="shared" si="0"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="28">
+    <row r="58" spans="1:15" ht="28">
       <c r="B58" s="2" t="s">
         <v>375</v>
       </c>
@@ -4536,14 +4784,18 @@
       <c r="L58" s="5">
         <v>0.85</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="N58" s="2">
         <v>2016</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="O58" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:15">
       <c r="B59" s="2" t="s">
         <v>375</v>
       </c>
@@ -4571,11 +4823,15 @@
       <c r="L59" s="5">
         <v>0.83</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="N59" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="42">
+    <row r="60" spans="1:15">
       <c r="B60" s="2" t="s">
         <v>375</v>
       </c>
@@ -4603,8 +4859,12 @@
       <c r="L60" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="28">
+      <c r="M60" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="B61" s="2" t="s">
         <v>375</v>
       </c>
@@ -4629,8 +4889,12 @@
       <c r="L61" s="5">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="56">
+      <c r="M61" s="5">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="28">
       <c r="B62" s="2" t="s">
         <v>375</v>
       </c>
@@ -4658,14 +4922,18 @@
       <c r="L62" s="5">
         <v>0.04</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="5">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="N62" s="2">
         <v>2016</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="O62" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="56">
+    <row r="63" spans="1:15">
       <c r="B63" s="2" t="s">
         <v>375</v>
       </c>
@@ -4693,8 +4961,12 @@
       <c r="L63" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="42">
+      <c r="M63" s="5">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="B64" s="2" t="s">
         <v>375</v>
       </c>
@@ -4722,11 +4994,15 @@
       <c r="L64" s="5">
         <v>0.41</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="5">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="N64" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="65" spans="2:14" ht="56">
+    <row r="65" spans="2:15" ht="28">
       <c r="B65" s="2" t="s">
         <v>375</v>
       </c>
@@ -4750,8 +5026,12 @@
       <c r="L65" s="5">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" ht="28">
+      <c r="M65" s="5">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15">
       <c r="B66" s="2" t="s">
         <v>375</v>
       </c>
@@ -4779,11 +5059,15 @@
       <c r="L66" s="5">
         <v>0.05</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="M66" s="5">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="O66" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:15">
       <c r="B67" s="2" t="s">
         <v>375</v>
       </c>
@@ -4811,8 +5095,12 @@
       <c r="L67" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="68" spans="2:14">
+      <c r="M67" s="5">
+        <f t="shared" ref="M67:M130" si="1">L67-H67</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15">
       <c r="B68" s="2" t="s">
         <v>375</v>
       </c>
@@ -4843,8 +5131,12 @@
       <c r="L68" s="5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="69" spans="2:14">
+      <c r="M68" s="5">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15">
       <c r="B69" s="2" t="s">
         <v>375</v>
       </c>
@@ -4875,8 +5167,12 @@
       <c r="L69" s="5">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" ht="28">
+      <c r="M69" s="5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" ht="28">
       <c r="B70" s="2" t="s">
         <v>323</v>
       </c>
@@ -4904,14 +5200,18 @@
       <c r="L70" s="5">
         <v>0.09</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="5">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="N70" s="2">
         <v>2017</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="O70" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="2:14" ht="28">
+    <row r="71" spans="2:15">
       <c r="B71" s="2" t="s">
         <v>323</v>
       </c>
@@ -4939,8 +5239,12 @@
       <c r="L71" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="72" spans="2:14">
+      <c r="M71" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" ht="28">
       <c r="B72" s="2" t="s">
         <v>323</v>
       </c>
@@ -4968,11 +5272,15 @@
       <c r="L72" s="5">
         <v>0</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="M72" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.01</v>
+      </c>
+      <c r="O72" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:15" ht="28">
       <c r="B73" s="2" t="s">
         <v>323</v>
       </c>
@@ -5000,14 +5308,18 @@
       <c r="L73" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="5">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="N73" s="2">
         <v>2017</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="O73" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:15">
       <c r="B74" s="2" t="s">
         <v>323</v>
       </c>
@@ -5035,8 +5347,12 @@
       <c r="L74" s="5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="75" spans="2:14">
+      <c r="M74" s="5">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" ht="28">
       <c r="B75" s="2" t="s">
         <v>323</v>
       </c>
@@ -5064,11 +5380,15 @@
       <c r="L75" s="5">
         <v>0.01</v>
       </c>
-      <c r="N75" s="2" t="s">
+      <c r="M75" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:15">
       <c r="B76" s="2" t="s">
         <v>323</v>
       </c>
@@ -5096,8 +5416,12 @@
       <c r="L76" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="77" spans="2:14">
+      <c r="M76" s="5">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999985E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15">
       <c r="B77" s="2" t="s">
         <v>323</v>
       </c>
@@ -5125,8 +5449,12 @@
       <c r="L77" s="5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="78" spans="2:14">
+      <c r="M77" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" ht="28">
       <c r="B78" s="2" t="s">
         <v>323</v>
       </c>
@@ -5154,11 +5482,15 @@
       <c r="L78" s="5">
         <v>0.02</v>
       </c>
-      <c r="N78" s="2" t="s">
+      <c r="M78" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:15">
       <c r="B79" s="2" t="s">
         <v>323</v>
       </c>
@@ -5186,11 +5518,15 @@
       <c r="L79" s="5">
         <v>0.02</v>
       </c>
-      <c r="N79" s="2" t="s">
+      <c r="M79" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:15">
       <c r="B80" s="2" t="s">
         <v>323</v>
       </c>
@@ -5218,11 +5554,15 @@
       <c r="L80" s="5">
         <v>0.02</v>
       </c>
-      <c r="N80" s="2" t="s">
+      <c r="M80" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:15" ht="42">
       <c r="B81" s="2" t="s">
         <v>323</v>
       </c>
@@ -5250,11 +5590,15 @@
       <c r="L81" s="5">
         <v>0.01</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="M81" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.01</v>
+      </c>
+      <c r="O81" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:15">
       <c r="B82" s="2" t="s">
         <v>323</v>
       </c>
@@ -5282,11 +5626,15 @@
       <c r="L82" s="5">
         <v>0.03</v>
       </c>
-      <c r="N82" s="2" t="s">
+      <c r="M82" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:15">
       <c r="B83" s="2" t="s">
         <v>323</v>
       </c>
@@ -5314,11 +5662,15 @@
       <c r="L83" s="5">
         <v>0.03</v>
       </c>
-      <c r="N83" s="2" t="s">
+      <c r="M83" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:15">
       <c r="B84" s="2" t="s">
         <v>323</v>
       </c>
@@ -5346,8 +5698,12 @@
       <c r="L84" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="M84" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="B85" s="2" t="s">
         <v>323</v>
       </c>
@@ -5375,8 +5731,12 @@
       <c r="L85" s="5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="28">
+      <c r="M85" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="B86" s="2" t="s">
         <v>323</v>
       </c>
@@ -5404,11 +5764,15 @@
       <c r="L86" s="5">
         <v>0.13</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="M86" s="5">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="O86" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:15">
       <c r="B87" s="2" t="s">
         <v>323</v>
       </c>
@@ -5436,8 +5800,12 @@
       <c r="L87" s="5">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="M87" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="70">
       <c r="B88" s="2" t="s">
         <v>323</v>
       </c>
@@ -5465,14 +5833,18 @@
       <c r="L88" s="5">
         <v>0.25</v>
       </c>
-      <c r="M88" s="2">
+      <c r="M88" s="5">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="N88" s="2">
         <v>2016</v>
       </c>
-      <c r="N88" s="2" t="s">
+      <c r="O88" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:15" ht="70">
       <c r="B89" s="2" t="s">
         <v>323</v>
       </c>
@@ -5500,14 +5872,18 @@
       <c r="L89" s="5">
         <v>0.24</v>
       </c>
-      <c r="M89" s="2">
+      <c r="M89" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
         <v>2016</v>
       </c>
-      <c r="N89" s="2" t="s">
+      <c r="O89" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:15" ht="56">
       <c r="A90" s="6" t="s">
         <v>522</v>
       </c>
@@ -5541,11 +5917,15 @@
       <c r="L90" s="5">
         <v>0.42</v>
       </c>
-      <c r="N90" s="2" t="s">
+      <c r="M90" s="5">
+        <f t="shared" si="1"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="O90" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:15">
       <c r="B91" s="2" t="s">
         <v>323</v>
       </c>
@@ -5573,11 +5953,15 @@
       <c r="L91" s="5">
         <v>0.67</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="M91" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.9999999999999925E-2</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:15">
       <c r="B92" s="2" t="s">
         <v>323</v>
       </c>
@@ -5608,8 +5992,12 @@
       <c r="L92" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="M92" s="5">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="B93" s="2" t="s">
         <v>323</v>
       </c>
@@ -5637,11 +6025,15 @@
       <c r="L93" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N93" s="2" t="s">
+      <c r="M93" s="5">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O93" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:15">
       <c r="B94" s="2" t="s">
         <v>323</v>
       </c>
@@ -5669,8 +6061,12 @@
       <c r="L94" s="5">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="M94" s="5">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="28">
       <c r="B95" s="2" t="s">
         <v>323</v>
       </c>
@@ -5698,11 +6094,15 @@
       <c r="L95" s="5">
         <v>0.04</v>
       </c>
-      <c r="N95" s="2" t="s">
+      <c r="M95" s="5">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:15">
       <c r="B96" s="2" t="s">
         <v>323</v>
       </c>
@@ -5730,11 +6130,15 @@
       <c r="L96" s="5">
         <v>0.03</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="M96" s="5">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="O96" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:15" ht="42">
       <c r="B97" s="2" t="s">
         <v>293</v>
       </c>
@@ -5762,11 +6166,15 @@
       <c r="L97" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="M97" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000006E-2</v>
+      </c>
+      <c r="O97" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="28">
+    <row r="98" spans="1:15" ht="42">
       <c r="B98" s="2" t="s">
         <v>293</v>
       </c>
@@ -5794,11 +6202,15 @@
       <c r="L98" s="5">
         <v>0.05</v>
       </c>
-      <c r="N98" s="2" t="s">
+      <c r="M98" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="O98" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="28">
+    <row r="99" spans="1:15" ht="42">
       <c r="B99" s="2" t="s">
         <v>293</v>
       </c>
@@ -5826,11 +6238,15 @@
       <c r="L99" s="5">
         <v>0.11</v>
       </c>
-      <c r="N99" s="2" t="s">
+      <c r="M99" s="5">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="O99" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="28">
+    <row r="100" spans="1:15" ht="42">
       <c r="A100" s="6" t="s">
         <v>522</v>
       </c>
@@ -5864,11 +6280,15 @@
       <c r="L100" s="5">
         <v>0.25</v>
       </c>
-      <c r="N100" s="2" t="s">
+      <c r="M100" s="5">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="O100" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="28">
+    <row r="101" spans="1:15" ht="42">
       <c r="B101" s="2" t="s">
         <v>293</v>
       </c>
@@ -5896,11 +6316,15 @@
       <c r="L101" s="5">
         <v>0.16</v>
       </c>
-      <c r="N101" s="2" t="s">
+      <c r="M101" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="O101" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="28">
+    <row r="102" spans="1:15">
       <c r="B102" s="2" t="s">
         <v>293</v>
       </c>
@@ -5928,8 +6352,12 @@
       <c r="L102" s="5">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="28">
+      <c r="M102" s="5">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="28">
       <c r="B103" s="2" t="s">
         <v>293</v>
       </c>
@@ -5957,11 +6385,15 @@
       <c r="L103" s="5">
         <v>0.27</v>
       </c>
-      <c r="N103" s="2" t="s">
+      <c r="M103" s="5">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="O103" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="28">
+    <row r="104" spans="1:15" ht="28">
       <c r="B104" s="2" t="s">
         <v>293</v>
       </c>
@@ -5989,11 +6421,15 @@
       <c r="L104" s="5">
         <v>0.31</v>
       </c>
-      <c r="N104" s="2" t="s">
+      <c r="M104" s="5">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="O104" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="28">
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>522</v>
       </c>
@@ -6027,8 +6463,12 @@
       <c r="L105" s="5">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="28">
+      <c r="M105" s="5">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="56">
       <c r="A106" s="6" t="s">
         <v>522</v>
       </c>
@@ -6062,11 +6502,15 @@
       <c r="L106" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N106" s="2" t="s">
+      <c r="M106" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.06</v>
+      </c>
+      <c r="O106" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="28">
+    <row r="107" spans="1:15">
       <c r="B107" s="2" t="s">
         <v>293</v>
       </c>
@@ -6094,8 +6538,12 @@
       <c r="L107" s="5">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" ht="28">
+      <c r="M107" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="56">
       <c r="A108" s="6" t="s">
         <v>522</v>
       </c>
@@ -6129,11 +6577,15 @@
       <c r="L108" s="5">
         <v>0.45</v>
       </c>
-      <c r="N108" s="2" t="s">
+      <c r="M108" s="5">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="O108" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:15" ht="28">
       <c r="B109" s="2" t="s">
         <v>293</v>
       </c>
@@ -6161,11 +6613,15 @@
       <c r="L109" s="5">
         <v>0.36</v>
       </c>
-      <c r="N109" s="2" t="s">
+      <c r="M109" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="O109" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:15" ht="28">
       <c r="A110" s="6" t="s">
         <v>522</v>
       </c>
@@ -6199,11 +6655,15 @@
       <c r="L110" s="5">
         <v>0.59</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="M110" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13999999999999996</v>
+      </c>
+      <c r="O110" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="28">
+    <row r="111" spans="1:15" ht="28">
       <c r="B111" s="2" t="s">
         <v>293</v>
       </c>
@@ -6231,11 +6691,15 @@
       <c r="L111" s="5">
         <v>0.54</v>
       </c>
-      <c r="N111" s="2" t="s">
+      <c r="M111" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="O111" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:15" ht="28">
       <c r="B112" s="2" t="s">
         <v>293</v>
       </c>
@@ -6263,11 +6727,15 @@
       <c r="L112" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N112" s="2" t="s">
+      <c r="M112" s="5">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="O112" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="113" spans="2:14">
+    <row r="113" spans="2:15">
       <c r="B113" s="2" t="s">
         <v>293</v>
       </c>
@@ -6295,8 +6763,12 @@
       <c r="L113" s="5">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="114" spans="2:14">
+      <c r="M113" s="5">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15">
       <c r="B114" s="2" t="s">
         <v>293</v>
       </c>
@@ -6324,8 +6796,12 @@
       <c r="L114" s="5">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="115" spans="2:14">
+      <c r="M114" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15">
       <c r="B115" s="2" t="s">
         <v>293</v>
       </c>
@@ -6353,8 +6829,12 @@
       <c r="L115" s="5">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="116" spans="2:14">
+      <c r="M115" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15">
       <c r="B116" s="2" t="s">
         <v>293</v>
       </c>
@@ -6383,11 +6863,15 @@
       <c r="L116" s="5">
         <v>0.13</v>
       </c>
-      <c r="N116" s="2" t="s">
+      <c r="M116" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="O116" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="117" spans="2:14">
+    <row r="117" spans="2:15" ht="28">
       <c r="B117" s="2" t="s">
         <v>482</v>
       </c>
@@ -6415,14 +6899,18 @@
       <c r="L117" s="5">
         <v>0.02</v>
       </c>
-      <c r="M117" s="2">
+      <c r="M117" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.0000000000000002E-2</v>
+      </c>
+      <c r="N117" s="2">
         <v>2016</v>
       </c>
-      <c r="N117" s="2" t="s">
+      <c r="O117" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="118" spans="2:14">
+    <row r="118" spans="2:15">
       <c r="B118" s="2" t="s">
         <v>482</v>
       </c>
@@ -6450,8 +6938,12 @@
       <c r="L118" s="5">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="119" spans="2:14">
+      <c r="M118" s="5">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15">
       <c r="B119" s="2" t="s">
         <v>482</v>
       </c>
@@ -6479,8 +6971,12 @@
       <c r="L119" s="5">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="120" spans="2:14">
+      <c r="M119" s="5">
+        <f t="shared" si="1"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15">
       <c r="B120" s="2" t="s">
         <v>482</v>
       </c>
@@ -6508,8 +7004,12 @@
       <c r="L120" s="5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="121" spans="2:14">
+      <c r="M120" s="5">
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" ht="28">
       <c r="B121" s="2" t="s">
         <v>482</v>
       </c>
@@ -6537,8 +7037,12 @@
       <c r="L121" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="122" spans="2:14">
+      <c r="M121" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" ht="28">
       <c r="B122" s="2" t="s">
         <v>482</v>
       </c>
@@ -6566,11 +7070,15 @@
       <c r="L122" s="5">
         <v>0.12</v>
       </c>
-      <c r="N122" s="2" t="s">
+      <c r="M122" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="O122" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="123" spans="2:14">
+    <row r="123" spans="2:15">
       <c r="B123" s="2" t="s">
         <v>482</v>
       </c>
@@ -6598,11 +7106,15 @@
       <c r="L123" s="5">
         <v>0.18</v>
       </c>
-      <c r="N123" s="2" t="s">
+      <c r="M123" s="5">
+        <f t="shared" si="1"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+      <c r="O123" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="124" spans="2:14">
+    <row r="124" spans="2:15" ht="28">
       <c r="B124" s="2" t="s">
         <v>482</v>
       </c>
@@ -6630,8 +7142,12 @@
       <c r="L124" s="5">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="125" spans="2:14">
+      <c r="M124" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15">
       <c r="B125" s="2" t="s">
         <v>482</v>
       </c>
@@ -6659,8 +7175,12 @@
       <c r="L125" s="5">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="126" spans="2:14">
+      <c r="M125" s="5">
+        <f t="shared" si="1"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" ht="28">
       <c r="B126" s="2" t="s">
         <v>482</v>
       </c>
@@ -6688,8 +7208,12 @@
       <c r="L126" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="127" spans="2:14">
+      <c r="M126" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15">
       <c r="B127" s="2" t="s">
         <v>482</v>
       </c>
@@ -6720,8 +7244,12 @@
       <c r="L127" s="5">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="128" spans="2:14">
+      <c r="M127" s="5">
+        <f t="shared" si="1"/>
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" ht="42">
       <c r="B128" s="2" t="s">
         <v>482</v>
       </c>
@@ -6749,11 +7277,15 @@
       <c r="L128" s="5">
         <v>0.18</v>
       </c>
-      <c r="N128" s="2" t="s">
+      <c r="M128" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="O128" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:15" ht="28">
       <c r="B129" s="2" t="s">
         <v>482</v>
       </c>
@@ -6781,8 +7313,12 @@
       <c r="L129" s="5">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="130" spans="1:14">
+      <c r="M129" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="28">
       <c r="B130" s="2" t="s">
         <v>482</v>
       </c>
@@ -6810,8 +7346,12 @@
       <c r="L130" s="5">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" ht="28">
+      <c r="M130" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="28">
       <c r="B131" s="2" t="s">
         <v>482</v>
       </c>
@@ -6839,14 +7379,18 @@
       <c r="L131" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M131" s="2">
+      <c r="M131" s="5">
+        <f t="shared" ref="M131:M194" si="2">L131-H131</f>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="N131" s="2">
         <v>2017</v>
       </c>
-      <c r="N131" s="2" t="s">
+      <c r="O131" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:15" ht="28">
       <c r="A132" t="s">
         <v>522</v>
       </c>
@@ -6880,8 +7424,12 @@
       <c r="L132" s="5">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="133" spans="1:14">
+      <c r="M132" s="5">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="28">
       <c r="B133" s="2" t="s">
         <v>482</v>
       </c>
@@ -6909,8 +7457,12 @@
       <c r="L133" s="5">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="134" spans="1:14">
+      <c r="M133" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="28">
       <c r="B134" s="2" t="s">
         <v>482</v>
       </c>
@@ -6938,8 +7490,12 @@
       <c r="L134" s="5">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" ht="42">
+      <c r="M134" s="5">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="28">
       <c r="B135" s="2" t="s">
         <v>482</v>
       </c>
@@ -6970,8 +7526,12 @@
       <c r="L135" s="5">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="136" spans="1:14">
+      <c r="M135" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="56">
       <c r="A136" t="s">
         <v>522</v>
       </c>
@@ -7005,11 +7565,15 @@
       <c r="L136" s="5">
         <v>0.23</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="M136" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="O136" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:15" ht="28">
       <c r="A137" t="s">
         <v>522</v>
       </c>
@@ -7043,8 +7607,12 @@
       <c r="L137" s="5">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="138" spans="1:14">
+      <c r="M137" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="B138" s="2" t="s">
         <v>482</v>
       </c>
@@ -7072,8 +7640,12 @@
       <c r="L138" s="5">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="139" spans="1:14">
+      <c r="M138" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="28">
       <c r="B139" s="2" t="s">
         <v>482</v>
       </c>
@@ -7104,8 +7676,12 @@
       <c r="L139" s="5">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="140" spans="1:14">
+      <c r="M139" s="5">
+        <f t="shared" si="2"/>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="28">
       <c r="B140" s="2" t="s">
         <v>482</v>
       </c>
@@ -7133,8 +7709,12 @@
       <c r="L140" s="5">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" ht="28">
+      <c r="M140" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="28">
       <c r="B141" s="2" t="s">
         <v>482</v>
       </c>
@@ -7162,8 +7742,12 @@
       <c r="L141" s="5">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="142" spans="1:14">
+      <c r="M141" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="28">
       <c r="B142" s="2" t="s">
         <v>482</v>
       </c>
@@ -7191,11 +7775,15 @@
       <c r="L142" s="5">
         <v>0.4</v>
       </c>
-      <c r="N142" s="2" t="s">
+      <c r="M142" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="O142" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:15" ht="28">
       <c r="A143" t="s">
         <v>522</v>
       </c>
@@ -7229,8 +7817,12 @@
       <c r="L143" s="5">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="144" spans="1:14">
+      <c r="M143" s="5">
+        <f t="shared" si="2"/>
+        <v>0.13000000000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="28">
       <c r="B144" s="2" t="s">
         <v>482</v>
       </c>
@@ -7258,11 +7850,15 @@
       <c r="L144" s="5">
         <v>0.33</v>
       </c>
-      <c r="M144" s="2">
+      <c r="M144" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.16999999999999998</v>
+      </c>
+      <c r="N144" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:15" ht="42">
       <c r="B145" s="2" t="s">
         <v>482</v>
       </c>
@@ -7290,11 +7886,15 @@
       <c r="L145" s="5">
         <v>0.65</v>
       </c>
-      <c r="N145" s="2" t="s">
+      <c r="M145" s="5">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="O145" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:15" ht="28">
       <c r="A146" t="s">
         <v>522</v>
       </c>
@@ -7328,11 +7928,15 @@
       <c r="L146" s="5">
         <v>0.65</v>
       </c>
-      <c r="N146" s="2" t="s">
+      <c r="M146" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.9999999999999951E-2</v>
+      </c>
+      <c r="O146" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="28">
+    <row r="147" spans="1:15" ht="28">
       <c r="B147" s="2" t="s">
         <v>482</v>
       </c>
@@ -7360,8 +7964,12 @@
       <c r="L147" s="5">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="M147" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="28">
       <c r="B148" s="2" t="s">
         <v>482</v>
       </c>
@@ -7389,11 +7997,15 @@
       <c r="L148" s="5">
         <v>0.72</v>
       </c>
-      <c r="N148" s="2" t="s">
+      <c r="M148" s="5">
+        <f t="shared" si="2"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="O148" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:15" ht="28">
       <c r="B149" s="2" t="s">
         <v>482</v>
       </c>
@@ -7421,8 +8033,12 @@
       <c r="L149" s="5">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="150" spans="1:14">
+      <c r="M149" s="5">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="28">
       <c r="A150" t="s">
         <v>522</v>
       </c>
@@ -7456,8 +8072,12 @@
       <c r="L150" s="5">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="M150" s="5">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="28">
       <c r="B151" s="2" t="s">
         <v>482</v>
       </c>
@@ -7488,8 +8108,12 @@
       <c r="L151" s="5">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" ht="28">
+      <c r="M151" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.9999999999999951E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="28">
       <c r="B152" s="2" t="s">
         <v>482</v>
       </c>
@@ -7517,11 +8141,15 @@
       <c r="L152" s="5">
         <v>0.81</v>
       </c>
-      <c r="N152" s="2" t="s">
+      <c r="M152" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="O152" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:15">
       <c r="B153" s="2" t="s">
         <v>482</v>
       </c>
@@ -7549,8 +8177,12 @@
       <c r="L153" s="5">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="154" spans="1:14">
+      <c r="M153" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="28">
       <c r="B154" s="2" t="s">
         <v>482</v>
       </c>
@@ -7581,8 +8213,12 @@
       <c r="L154" s="5">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="155" spans="1:14">
+      <c r="M154" s="5">
+        <f t="shared" si="2"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="B155" s="2" t="s">
         <v>482</v>
       </c>
@@ -7610,8 +8246,12 @@
       <c r="L155" s="5">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" ht="28">
+      <c r="M155" s="5">
+        <f t="shared" si="2"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="28">
       <c r="B156" s="2" t="s">
         <v>482</v>
       </c>
@@ -7639,8 +8279,12 @@
       <c r="L156" s="5">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" ht="28">
+      <c r="M156" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="B157" s="2" t="s">
         <v>482</v>
       </c>
@@ -7668,11 +8312,15 @@
       <c r="L157" s="5">
         <v>0.95</v>
       </c>
-      <c r="M157" s="2">
+      <c r="M157" s="5">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="N157" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:15">
       <c r="B158" s="2" t="s">
         <v>482</v>
       </c>
@@ -7698,8 +8346,12 @@
       <c r="L158" s="5">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="159" spans="1:14">
+      <c r="M158" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="B159" s="2" t="s">
         <v>482</v>
       </c>
@@ -7727,14 +8379,18 @@
       <c r="L159" s="5">
         <v>0.04</v>
       </c>
-      <c r="M159" s="2">
+      <c r="M159" s="5">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="N159" s="2">
         <v>2016</v>
       </c>
-      <c r="N159" s="2" t="s">
+      <c r="O159" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:15" ht="28">
       <c r="B160" s="2" t="s">
         <v>482</v>
       </c>
@@ -7762,11 +8418,15 @@
       <c r="L160" s="5">
         <v>0.49</v>
       </c>
-      <c r="N160" s="2" t="s">
+      <c r="M160" s="5">
+        <f t="shared" si="2"/>
+        <v>0.49</v>
+      </c>
+      <c r="O160" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="161" spans="2:14">
+    <row r="161" spans="2:15" ht="28">
       <c r="B161" s="2" t="s">
         <v>482</v>
       </c>
@@ -7794,11 +8454,15 @@
       <c r="L161" s="5">
         <v>0.46</v>
       </c>
-      <c r="N161" s="2" t="s">
+      <c r="M161" s="5">
+        <f t="shared" si="2"/>
+        <v>0.46</v>
+      </c>
+      <c r="O161" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="162" spans="2:14">
+    <row r="162" spans="2:15" ht="28">
       <c r="B162" s="2" t="s">
         <v>482</v>
       </c>
@@ -7826,11 +8490,15 @@
       <c r="L162" s="5">
         <v>0.32</v>
       </c>
-      <c r="N162" s="2" t="s">
+      <c r="M162" s="5">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="O162" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="163" spans="2:14">
+    <row r="163" spans="2:15" ht="28">
       <c r="B163" s="2" t="s">
         <v>482</v>
       </c>
@@ -7861,8 +8529,12 @@
       <c r="L163" s="5">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="164" spans="2:14">
+      <c r="M163" s="5">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="2:15" ht="28">
       <c r="B164" s="2" t="s">
         <v>482</v>
       </c>
@@ -7893,8 +8565,12 @@
       <c r="L164" s="5">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="165" spans="2:14">
+      <c r="M164" s="5">
+        <f t="shared" si="2"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="165" spans="2:15" ht="28">
       <c r="B165" s="2" t="s">
         <v>482</v>
       </c>
@@ -7925,8 +8601,12 @@
       <c r="L165" s="5">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="166" spans="2:14">
+      <c r="M165" s="5">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="2:15" ht="28">
       <c r="B166" s="2" t="s">
         <v>482</v>
       </c>
@@ -7957,8 +8637,12 @@
       <c r="L166" s="5">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="167" spans="2:14" ht="28">
+      <c r="M166" s="5">
+        <f t="shared" si="2"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15" ht="28">
       <c r="B167" s="2" t="s">
         <v>482</v>
       </c>
@@ -7986,11 +8670,15 @@
       <c r="L167" s="5">
         <v>0.34</v>
       </c>
-      <c r="N167" s="2" t="s">
+      <c r="M167" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34</v>
+      </c>
+      <c r="O167" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="168" spans="2:14">
+    <row r="168" spans="2:15" ht="28">
       <c r="B168" s="2" t="s">
         <v>482</v>
       </c>
@@ -8018,11 +8706,15 @@
       <c r="L168" s="5">
         <v>0.06</v>
       </c>
-      <c r="N168" s="2" t="s">
+      <c r="M168" s="5">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="O168" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="169" spans="2:14">
+    <row r="169" spans="2:15" ht="28">
       <c r="B169" s="2" t="s">
         <v>482</v>
       </c>
@@ -8050,8 +8742,12 @@
       <c r="L169" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="170" spans="2:14" ht="28">
+      <c r="M169" s="5">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15" ht="28">
       <c r="B170" s="2" t="s">
         <v>482</v>
       </c>
@@ -8079,8 +8775,12 @@
       <c r="L170" s="5">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="171" spans="2:14">
+      <c r="M170" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="171" spans="2:15" ht="28">
       <c r="B171" s="2" t="s">
         <v>237</v>
       </c>
@@ -8108,11 +8808,15 @@
       <c r="L171" s="5">
         <v>0.04</v>
       </c>
-      <c r="N171" s="2" t="s">
+      <c r="M171" s="5">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="O171" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="172" spans="2:14" ht="42">
+    <row r="172" spans="2:15">
       <c r="B172" s="2" t="s">
         <v>237</v>
       </c>
@@ -8140,11 +8844,15 @@
       <c r="L172" s="5">
         <v>0.02</v>
       </c>
-      <c r="N172" s="2" t="s">
+      <c r="M172" s="5">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="O172" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="173" spans="2:14" ht="28">
+    <row r="173" spans="2:15">
       <c r="B173" s="2" t="s">
         <v>237</v>
       </c>
@@ -8172,8 +8880,12 @@
       <c r="L173" s="5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="174" spans="2:14" ht="28">
+      <c r="M173" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:15">
       <c r="B174" s="2" t="s">
         <v>237</v>
       </c>
@@ -8201,11 +8913,15 @@
       <c r="L174" s="5">
         <v>0.05</v>
       </c>
-      <c r="N174" s="2" t="s">
+      <c r="M174" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="O174" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="175" spans="2:14">
+    <row r="175" spans="2:15">
       <c r="B175" s="2" t="s">
         <v>237</v>
       </c>
@@ -8233,8 +8949,12 @@
       <c r="L175" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="176" spans="2:14">
+      <c r="M175" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:15" ht="28">
       <c r="B176" s="2" t="s">
         <v>237</v>
       </c>
@@ -8262,11 +8982,15 @@
       <c r="L176" s="5">
         <v>0.04</v>
       </c>
-      <c r="N176" s="2" t="s">
+      <c r="M176" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000002E-2</v>
+      </c>
+      <c r="O176" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="2:14" ht="28">
+    <row r="177" spans="2:15" ht="28">
       <c r="B177" s="2" t="s">
         <v>237</v>
       </c>
@@ -8294,11 +9018,15 @@
       <c r="L177" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N177" s="2" t="s">
+      <c r="M177" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="O177" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="178" spans="2:14" ht="28">
+    <row r="178" spans="2:15">
       <c r="B178" s="2" t="s">
         <v>237</v>
       </c>
@@ -8326,8 +9054,12 @@
       <c r="L178" s="5">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="179" spans="2:14" ht="28">
+      <c r="M178" s="5">
+        <f t="shared" si="2"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" ht="28">
       <c r="B179" s="2" t="s">
         <v>237</v>
       </c>
@@ -8355,14 +9087,18 @@
       <c r="L179" s="5">
         <v>0.09</v>
       </c>
-      <c r="M179" s="2">
+      <c r="M179" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000000008E-2</v>
+      </c>
+      <c r="N179" s="2">
         <v>2016</v>
       </c>
-      <c r="N179" s="2" t="s">
+      <c r="O179" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="180" spans="2:14">
+    <row r="180" spans="2:15">
       <c r="B180" s="2" t="s">
         <v>237</v>
       </c>
@@ -8390,14 +9126,18 @@
       <c r="L180" s="5">
         <v>0.1</v>
       </c>
-      <c r="M180" s="2">
+      <c r="M180" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000000008E-2</v>
+      </c>
+      <c r="N180" s="2">
         <v>2016</v>
       </c>
-      <c r="N180" s="2" t="s">
+      <c r="O180" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="2:14" ht="28">
+    <row r="181" spans="2:15" ht="28">
       <c r="B181" s="2" t="s">
         <v>237</v>
       </c>
@@ -8425,14 +9165,18 @@
       <c r="L181" s="5">
         <v>0.24</v>
       </c>
-      <c r="M181" s="2">
+      <c r="M181" s="5">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="N181" s="2">
         <v>2016</v>
       </c>
-      <c r="N181" s="2" t="s">
+      <c r="O181" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="182" spans="2:14">
+    <row r="182" spans="2:15" ht="28">
       <c r="B182" s="2" t="s">
         <v>237</v>
       </c>
@@ -8460,11 +9204,15 @@
       <c r="L182" s="5">
         <v>0.17</v>
       </c>
-      <c r="N182" s="2" t="s">
+      <c r="M182" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="O182" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="2:14">
+    <row r="183" spans="2:15">
       <c r="B183" s="2" t="s">
         <v>237</v>
       </c>
@@ -8492,8 +9240,12 @@
       <c r="L183" s="5">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="184" spans="2:14" ht="28">
+      <c r="M183" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" ht="42">
       <c r="B184" s="2" t="s">
         <v>237</v>
       </c>
@@ -8521,14 +9273,18 @@
       <c r="L184" s="5">
         <v>0.3</v>
       </c>
-      <c r="M184" s="2">
+      <c r="M184" s="5">
+        <f t="shared" si="2"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="N184" s="2">
         <v>2016</v>
       </c>
-      <c r="N184" s="2" t="s">
+      <c r="O184" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="185" spans="2:14" ht="56">
+    <row r="185" spans="2:15" ht="28">
       <c r="B185" s="2" t="s">
         <v>237</v>
       </c>
@@ -8556,14 +9312,18 @@
       <c r="L185" s="5">
         <v>0.23</v>
       </c>
-      <c r="M185" s="2">
+      <c r="M185" s="5">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N185" s="2">
         <v>2016</v>
       </c>
-      <c r="N185" s="2" t="s">
+      <c r="O185" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="186" spans="2:14" ht="28">
+    <row r="186" spans="2:15" ht="28">
       <c r="B186" s="2" t="s">
         <v>237</v>
       </c>
@@ -8591,8 +9351,12 @@
       <c r="L186" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="187" spans="2:14" ht="28">
+      <c r="M186" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="2:15" ht="28">
       <c r="B187" s="2" t="s">
         <v>237</v>
       </c>
@@ -8620,14 +9384,18 @@
       <c r="L187" s="5">
         <v>0.15</v>
       </c>
-      <c r="M187" s="2">
+      <c r="M187" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.03</v>
+      </c>
+      <c r="N187" s="2">
         <v>2016</v>
       </c>
-      <c r="N187" s="2" t="s">
+      <c r="O187" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="188" spans="2:14" ht="28">
+    <row r="188" spans="2:15">
       <c r="B188" s="2" t="s">
         <v>237</v>
       </c>
@@ -8655,8 +9423,12 @@
       <c r="L188" s="5">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="189" spans="2:14" ht="28">
+      <c r="M188" s="5">
+        <f t="shared" si="2"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:15">
       <c r="B189" s="2" t="s">
         <v>237</v>
       </c>
@@ -8684,14 +9456,18 @@
       <c r="L189" s="5">
         <v>0.16</v>
       </c>
-      <c r="M189" s="2">
+      <c r="M189" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+      <c r="N189" s="2">
         <v>2016</v>
       </c>
-      <c r="N189" s="2" t="s">
+      <c r="O189" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="190" spans="2:14" ht="28">
+    <row r="190" spans="2:15">
       <c r="B190" s="2" t="s">
         <v>237</v>
       </c>
@@ -8719,8 +9495,12 @@
       <c r="L190" s="5">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="191" spans="2:14">
+      <c r="M190" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:15">
       <c r="B191" s="2" t="s">
         <v>237</v>
       </c>
@@ -8748,11 +9528,15 @@
       <c r="L191" s="5">
         <v>0.33</v>
       </c>
-      <c r="M191" s="2">
+      <c r="M191" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="N191" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="192" spans="2:14">
+    <row r="192" spans="2:15" ht="28">
       <c r="B192" s="2" t="s">
         <v>237</v>
       </c>
@@ -8780,14 +9564,18 @@
       <c r="L192" s="5">
         <v>0.19</v>
       </c>
-      <c r="M192" s="2">
+      <c r="M192" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000000008E-2</v>
+      </c>
+      <c r="N192" s="2">
         <v>2016</v>
       </c>
-      <c r="N192" s="2" t="s">
+      <c r="O192" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:15">
       <c r="B193" s="2" t="s">
         <v>237</v>
       </c>
@@ -8815,11 +9603,15 @@
       <c r="L193" s="5">
         <v>0.25</v>
       </c>
-      <c r="N193" s="2" t="s">
+      <c r="M193" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="O193" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:15">
       <c r="B194" s="2" t="s">
         <v>237</v>
       </c>
@@ -8847,14 +9639,18 @@
       <c r="L194" s="5">
         <v>0.21</v>
       </c>
-      <c r="M194" s="2">
+      <c r="M194" s="5">
+        <f t="shared" si="2"/>
+        <v>-5.0000000000000017E-2</v>
+      </c>
+      <c r="N194" s="2">
         <v>2016</v>
       </c>
-      <c r="N194" s="2" t="s">
+      <c r="O194" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:15">
       <c r="B195" s="2" t="s">
         <v>237</v>
       </c>
@@ -8882,11 +9678,15 @@
       <c r="L195" s="5">
         <v>0.42</v>
       </c>
-      <c r="N195" s="2" t="s">
+      <c r="M195" s="5">
+        <f t="shared" ref="M195:M258" si="3">L195-H195</f>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="O195" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:15">
       <c r="B196" s="2" t="s">
         <v>237</v>
       </c>
@@ -8914,11 +9714,15 @@
       <c r="L196" s="5">
         <v>0.65</v>
       </c>
-      <c r="N196" s="2" t="s">
+      <c r="M196" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="O196" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:15">
       <c r="B197" s="2" t="s">
         <v>237</v>
       </c>
@@ -8946,11 +9750,15 @@
       <c r="L197" s="5">
         <v>0.81</v>
       </c>
-      <c r="M197" s="2">
+      <c r="M197" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.9999999999999933E-2</v>
+      </c>
+      <c r="N197" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="28">
+    <row r="198" spans="1:15">
       <c r="A198" t="s">
         <v>522</v>
       </c>
@@ -8984,8 +9792,12 @@
       <c r="L198" s="5">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" ht="28">
+      <c r="M198" s="5">
+        <f t="shared" si="3"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
       <c r="B199" s="2" t="s">
         <v>237</v>
       </c>
@@ -9013,11 +9825,15 @@
       <c r="L199" s="5">
         <v>0.96</v>
       </c>
-      <c r="M199" s="2">
+      <c r="M199" s="5">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="N199" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="28">
+    <row r="200" spans="1:15">
       <c r="B200" s="2" t="s">
         <v>237</v>
       </c>
@@ -9045,8 +9861,12 @@
       <c r="L200" s="5">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" ht="28">
+      <c r="M200" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
       <c r="B201" s="2" t="s">
         <v>237</v>
       </c>
@@ -9074,8 +9894,12 @@
       <c r="L201" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" ht="28">
+      <c r="M201" s="5">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
       <c r="B202" s="2" t="s">
         <v>237</v>
       </c>
@@ -9104,8 +9928,12 @@
       <c r="L202" s="5">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" ht="28">
+      <c r="M202" s="5">
+        <f t="shared" si="3"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
       <c r="B203" s="2" t="s">
         <v>237</v>
       </c>
@@ -9134,11 +9962,15 @@
       <c r="L203" s="5">
         <v>0.33</v>
       </c>
-      <c r="N203" s="2" t="s">
+      <c r="M203" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33</v>
+      </c>
+      <c r="O203" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:15">
       <c r="B204" s="2" t="s">
         <v>237</v>
       </c>
@@ -9166,8 +9998,12 @@
       <c r="L204" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="205" spans="1:14">
+      <c r="M204" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" ht="28">
       <c r="B205" s="2" t="s">
         <v>237</v>
       </c>
@@ -9195,11 +10031,15 @@
       <c r="L205" s="5">
         <v>0.15</v>
       </c>
-      <c r="N205" s="2" t="s">
+      <c r="M205" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="O205" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:15" ht="28">
       <c r="B206" s="2" t="s">
         <v>237</v>
       </c>
@@ -9227,14 +10067,18 @@
       <c r="L206" s="5">
         <v>0.08</v>
       </c>
-      <c r="M206" s="2">
+      <c r="M206" s="5">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="N206" s="2">
         <v>2016</v>
       </c>
-      <c r="N206" s="2" t="s">
+      <c r="O206" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:15">
       <c r="B207" s="2" t="s">
         <v>506</v>
       </c>
@@ -9262,8 +10106,12 @@
       <c r="L207" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="208" spans="1:14">
+      <c r="M207" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15">
       <c r="B208" s="2" t="s">
         <v>506</v>
       </c>
@@ -9291,8 +10139,12 @@
       <c r="L208" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" ht="28">
+      <c r="M208" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15">
       <c r="B209" s="2" t="s">
         <v>506</v>
       </c>
@@ -9320,8 +10172,12 @@
       <c r="L209" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" ht="28">
+      <c r="M209" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15">
       <c r="B210" s="2" t="s">
         <v>506</v>
       </c>
@@ -9349,8 +10205,12 @@
       <c r="L210" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" ht="28">
+      <c r="M210" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.9999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15">
       <c r="B211" s="2" t="s">
         <v>506</v>
       </c>
@@ -9378,8 +10238,12 @@
       <c r="L211" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" ht="28">
+      <c r="M211" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.9999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15">
       <c r="B212" s="2" t="s">
         <v>506</v>
       </c>
@@ -9407,8 +10271,12 @@
       <c r="L212" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" ht="28">
+      <c r="M212" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15">
       <c r="B213" s="2" t="s">
         <v>506</v>
       </c>
@@ -9436,8 +10304,12 @@
       <c r="L213" s="5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" ht="42">
+      <c r="M213" s="5">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15">
       <c r="B214" s="2" t="s">
         <v>506</v>
       </c>
@@ -9465,8 +10337,12 @@
       <c r="L214" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" ht="28">
+      <c r="M214" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15">
       <c r="B215" s="2" t="s">
         <v>506</v>
       </c>
@@ -9494,11 +10370,15 @@
       <c r="L215" s="5">
         <v>0.03</v>
       </c>
-      <c r="N215" s="2" t="s">
+      <c r="M215" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000002E-2</v>
+      </c>
+      <c r="O215" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="28">
+    <row r="216" spans="1:15">
       <c r="B216" s="2" t="s">
         <v>506</v>
       </c>
@@ -9526,8 +10406,12 @@
       <c r="L216" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" ht="42">
+      <c r="M216" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15">
       <c r="B217" s="2" t="s">
         <v>506</v>
       </c>
@@ -9555,8 +10439,12 @@
       <c r="L217" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" ht="28">
+      <c r="M217" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15">
       <c r="B218" s="2" t="s">
         <v>506</v>
       </c>
@@ -9584,8 +10472,12 @@
       <c r="L218" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" ht="28">
+      <c r="M218" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.9999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15">
       <c r="B219" s="2" t="s">
         <v>506</v>
       </c>
@@ -9613,8 +10505,12 @@
       <c r="L219" s="5">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" ht="28">
+      <c r="M219" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15">
       <c r="B220" s="2" t="s">
         <v>506</v>
       </c>
@@ -9642,11 +10538,15 @@
       <c r="L220" s="5">
         <v>0.04</v>
       </c>
-      <c r="N220" s="2" t="s">
+      <c r="M220" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.9999999999999997E-2</v>
+      </c>
+      <c r="O220" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="221" spans="1:14" ht="28">
+    <row r="221" spans="1:15" ht="28">
       <c r="B221" s="2" t="s">
         <v>506</v>
       </c>
@@ -9674,11 +10574,15 @@
       <c r="L221" s="5">
         <v>0.02</v>
       </c>
-      <c r="N221" s="2" t="s">
+      <c r="M221" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.9999999999999994E-2</v>
+      </c>
+      <c r="O221" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="28">
+    <row r="222" spans="1:15">
       <c r="A222" s="6" t="s">
         <v>522</v>
       </c>
@@ -9712,8 +10616,12 @@
       <c r="L222" s="5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" ht="28">
+      <c r="M222" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" ht="28">
       <c r="B223" s="2" t="s">
         <v>506</v>
       </c>
@@ -9741,11 +10649,15 @@
       <c r="L223" s="5">
         <v>0.11</v>
       </c>
-      <c r="N223" s="2" t="s">
+      <c r="M223" s="5">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="O223" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="28">
+    <row r="224" spans="1:15" ht="28">
       <c r="B224" s="2" t="s">
         <v>506</v>
       </c>
@@ -9773,11 +10685,15 @@
       <c r="L224" s="5">
         <v>0.05</v>
       </c>
-      <c r="N224" s="2" t="s">
+      <c r="M224" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="O224" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="225" spans="2:14" ht="28">
+    <row r="225" spans="2:15">
       <c r="B225" s="2" t="s">
         <v>506</v>
       </c>
@@ -9805,11 +10721,15 @@
       <c r="L225" s="5">
         <v>0.03</v>
       </c>
-      <c r="N225" s="2" t="s">
+      <c r="M225" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.0000000000000008E-2</v>
+      </c>
+      <c r="O225" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="226" spans="2:14" ht="28">
+    <row r="226" spans="2:15">
       <c r="B226" s="2" t="s">
         <v>506</v>
       </c>
@@ -9837,8 +10757,12 @@
       <c r="L226" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="227" spans="2:14" ht="28">
+      <c r="M226" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.9999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="2:15">
       <c r="B227" s="2" t="s">
         <v>506</v>
       </c>
@@ -9867,8 +10791,12 @@
       <c r="L227" s="5">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="228" spans="2:14" ht="28">
+      <c r="M227" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="2:15">
       <c r="B228" s="2" t="s">
         <v>506</v>
       </c>
@@ -9896,11 +10824,15 @@
       <c r="L228" s="5">
         <v>0.05</v>
       </c>
-      <c r="N228" s="2" t="s">
+      <c r="M228" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.05</v>
+      </c>
+      <c r="O228" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="229" spans="2:14" ht="28">
+    <row r="229" spans="2:15">
       <c r="B229" s="2" t="s">
         <v>506</v>
       </c>
@@ -9928,11 +10860,15 @@
       <c r="L229" s="5">
         <v>0.05</v>
       </c>
-      <c r="N229" s="2" t="s">
+      <c r="M229" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.05</v>
+      </c>
+      <c r="O229" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="230" spans="2:14" ht="28">
+    <row r="230" spans="2:15">
       <c r="B230" s="2" t="s">
         <v>506</v>
       </c>
@@ -9960,8 +10896,12 @@
       <c r="L230" s="5">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="231" spans="2:14" ht="28">
+      <c r="M230" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:15">
       <c r="B231" s="2" t="s">
         <v>506</v>
       </c>
@@ -9989,8 +10929,12 @@
       <c r="L231" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="232" spans="2:14" ht="28">
+      <c r="M231" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="2:15" ht="28">
       <c r="B232" s="2" t="s">
         <v>506</v>
       </c>
@@ -10018,8 +10962,12 @@
       <c r="L232" s="5">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="233" spans="2:14" ht="28">
+      <c r="M232" s="5">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="233" spans="2:15">
       <c r="B233" s="2" t="s">
         <v>506</v>
       </c>
@@ -10047,8 +10995,12 @@
       <c r="L233" s="5">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="234" spans="2:14" ht="28">
+      <c r="M233" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="2:15">
       <c r="B234" s="2" t="s">
         <v>506</v>
       </c>
@@ -10076,8 +11028,12 @@
       <c r="L234" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="235" spans="2:14" ht="28">
+      <c r="M234" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:15">
       <c r="B235" s="2" t="s">
         <v>506</v>
       </c>
@@ -10105,8 +11061,12 @@
       <c r="L235" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="236" spans="2:14" ht="28">
+      <c r="M235" s="5">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999811E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="2:15">
       <c r="B236" s="2" t="s">
         <v>506</v>
       </c>
@@ -10134,8 +11094,12 @@
       <c r="L236" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="237" spans="2:14" ht="28">
+      <c r="M236" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="2:15" ht="28">
       <c r="B237" s="2" t="s">
         <v>506</v>
       </c>
@@ -10163,8 +11127,12 @@
       <c r="L237" s="5">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="238" spans="2:14" ht="28">
+      <c r="M237" s="5">
+        <f t="shared" si="3"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="2:15">
       <c r="B238" s="2" t="s">
         <v>506</v>
       </c>
@@ -10195,11 +11163,15 @@
       <c r="L238" s="5">
         <v>0.13</v>
       </c>
-      <c r="N238" s="2" t="s">
+      <c r="M238" s="5">
+        <f t="shared" si="3"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="O238" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="239" spans="2:14">
+    <row r="239" spans="2:15" ht="28">
       <c r="B239" s="2" t="s">
         <v>506</v>
       </c>
@@ -10227,11 +11199,15 @@
       <c r="L239" s="5">
         <v>0.2</v>
       </c>
-      <c r="N239" s="2" t="s">
+      <c r="M239" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="O239" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="240" spans="2:14" ht="28">
+    <row r="240" spans="2:15">
       <c r="B240" s="2" t="s">
         <v>506</v>
       </c>
@@ -10262,11 +11238,15 @@
       <c r="L240" s="5">
         <v>0.15</v>
       </c>
-      <c r="N240" s="2" t="s">
+      <c r="M240" s="5">
+        <f t="shared" si="3"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="O240" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="241" spans="1:14" ht="56">
+    <row r="241" spans="1:15">
       <c r="B241" s="2" t="s">
         <v>506</v>
       </c>
@@ -10294,11 +11274,15 @@
       <c r="L241" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N241" s="2" t="s">
+      <c r="M241" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="O241" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="242" spans="1:14" ht="56">
+    <row r="242" spans="1:15">
       <c r="B242" s="2" t="s">
         <v>506</v>
       </c>
@@ -10326,8 +11310,12 @@
       <c r="L242" s="5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" ht="42">
+      <c r="M242" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15">
       <c r="A243" s="6" t="s">
         <v>522</v>
       </c>
@@ -10361,8 +11349,12 @@
       <c r="L243" s="5">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="M243" s="5">
+        <f t="shared" si="3"/>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" ht="28">
       <c r="B244" s="2" t="s">
         <v>506</v>
       </c>
@@ -10390,8 +11382,12 @@
       <c r="L244" s="5">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="245" spans="1:14">
+      <c r="M244" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15">
       <c r="B245" s="2" t="s">
         <v>506</v>
       </c>
@@ -10419,8 +11415,12 @@
       <c r="L245" s="5">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" ht="28">
+      <c r="M245" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" ht="28">
       <c r="B246" s="2" t="s">
         <v>506</v>
       </c>
@@ -10448,8 +11448,12 @@
       <c r="L246" s="5">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="247" spans="1:14">
+      <c r="M246" s="5">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15">
       <c r="B247" s="2" t="s">
         <v>506</v>
       </c>
@@ -10477,8 +11481,12 @@
       <c r="L247" s="5">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="248" spans="1:14">
+      <c r="M247" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.9999999999999916E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15">
       <c r="B248" s="2" t="s">
         <v>506</v>
       </c>
@@ -10506,8 +11514,12 @@
       <c r="L248" s="5">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="249" spans="1:14">
+      <c r="M248" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.9999999999999925E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15">
       <c r="A249" s="6" t="s">
         <v>522</v>
       </c>
@@ -10541,8 +11553,12 @@
       <c r="L249" s="5">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" ht="28">
+      <c r="M249" s="5">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" ht="28">
       <c r="B250" s="2" t="s">
         <v>506</v>
       </c>
@@ -10570,8 +11586,12 @@
       <c r="L250" s="5">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" ht="28">
+      <c r="M250" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" ht="28">
       <c r="B251" s="2" t="s">
         <v>506</v>
       </c>
@@ -10599,8 +11619,12 @@
       <c r="L251" s="5">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" ht="28">
+      <c r="M251" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" ht="28">
       <c r="B252" s="2" t="s">
         <v>506</v>
       </c>
@@ -10628,8 +11652,12 @@
       <c r="L252" s="5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" ht="28">
+      <c r="M252" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
       <c r="B253" s="2" t="s">
         <v>506</v>
       </c>
@@ -10657,8 +11685,12 @@
       <c r="L253" s="5">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" ht="42">
+      <c r="M253" s="5">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" ht="28">
       <c r="B254" s="2" t="s">
         <v>506</v>
       </c>
@@ -10686,11 +11718,15 @@
       <c r="L254" s="5">
         <v>0.83</v>
       </c>
-      <c r="N254" s="2" t="s">
+      <c r="M254" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="O254" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:15" ht="28">
       <c r="B255" s="2" t="s">
         <v>506</v>
       </c>
@@ -10718,8 +11754,12 @@
       <c r="L255" s="5">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" ht="42">
+      <c r="M255" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" ht="28">
       <c r="B256" s="2" t="s">
         <v>506</v>
       </c>
@@ -10747,8 +11787,12 @@
       <c r="L256" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="257" spans="2:14" ht="42">
+      <c r="M256" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="2:15" ht="28">
       <c r="B257" s="2" t="s">
         <v>506</v>
       </c>
@@ -10776,11 +11820,15 @@
       <c r="L257" s="5">
         <v>0.43</v>
       </c>
-      <c r="M257" s="2">
+      <c r="M257" s="5">
+        <f t="shared" si="3"/>
+        <v>0.43</v>
+      </c>
+      <c r="N257" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="258" spans="2:14" ht="42">
+    <row r="258" spans="2:15">
       <c r="B258" s="2" t="s">
         <v>506</v>
       </c>
@@ -10808,8 +11856,12 @@
       <c r="L258" s="5">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="259" spans="2:14" ht="56">
+      <c r="M258" s="5">
+        <f t="shared" si="3"/>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="259" spans="2:15">
       <c r="B259" s="2" t="s">
         <v>506</v>
       </c>
@@ -10837,8 +11889,12 @@
       <c r="L259" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="260" spans="2:14">
+      <c r="M259" s="5">
+        <f t="shared" ref="M259:M322" si="4">L259-H259</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="260" spans="2:15" ht="42">
       <c r="B260" s="2" t="s">
         <v>506</v>
       </c>
@@ -10866,11 +11922,15 @@
       <c r="L260" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N260" s="2" t="s">
+      <c r="M260" s="5">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O260" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="261" spans="2:14" ht="70">
+    <row r="261" spans="2:15">
       <c r="B261" s="2" t="s">
         <v>356</v>
       </c>
@@ -10898,8 +11958,12 @@
       <c r="L261" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="262" spans="2:14" ht="70">
+      <c r="M261" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:15">
       <c r="B262" s="2" t="s">
         <v>356</v>
       </c>
@@ -10927,8 +11991,12 @@
       <c r="L262" s="5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="263" spans="2:14" ht="28">
+      <c r="M262" s="5">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="263" spans="2:15">
       <c r="B263" s="2" t="s">
         <v>356</v>
       </c>
@@ -10956,11 +12024,15 @@
       <c r="L263" s="5">
         <v>0.03</v>
       </c>
-      <c r="N263" s="2" t="s">
+      <c r="M263" s="5">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="O263" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="264" spans="2:14">
+    <row r="264" spans="2:15">
       <c r="B264" s="2" t="s">
         <v>356</v>
       </c>
@@ -10988,8 +12060,12 @@
       <c r="L264" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="265" spans="2:14">
+      <c r="M264" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:15">
       <c r="B265" s="2" t="s">
         <v>356</v>
       </c>
@@ -11017,8 +12093,12 @@
       <c r="L265" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="266" spans="2:14">
+      <c r="M265" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:15">
       <c r="B266" s="2" t="s">
         <v>356</v>
       </c>
@@ -11046,8 +12126,12 @@
       <c r="L266" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="267" spans="2:14">
+      <c r="M266" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:15">
       <c r="B267" s="2" t="s">
         <v>356</v>
       </c>
@@ -11075,8 +12159,12 @@
       <c r="L267" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="268" spans="2:14">
+      <c r="M267" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="2:15">
       <c r="B268" s="2" t="s">
         <v>356</v>
       </c>
@@ -11104,8 +12192,12 @@
       <c r="L268" s="5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="269" spans="2:14">
+      <c r="M268" s="5">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="269" spans="2:15">
       <c r="B269" s="2" t="s">
         <v>356</v>
       </c>
@@ -11133,8 +12225,12 @@
       <c r="L269" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="270" spans="2:14">
+      <c r="M269" s="5">
+        <f t="shared" si="4"/>
+        <v>-9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="2:15">
       <c r="B270" s="2" t="s">
         <v>356</v>
       </c>
@@ -11162,11 +12258,15 @@
       <c r="L270" s="5">
         <v>0.05</v>
       </c>
-      <c r="N270" s="2" t="s">
+      <c r="M270" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.05</v>
+      </c>
+      <c r="O270" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="271" spans="2:14">
+    <row r="271" spans="2:15">
       <c r="B271" s="2" t="s">
         <v>356</v>
       </c>
@@ -11194,8 +12294,12 @@
       <c r="L271" s="5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="272" spans="2:14" ht="28">
+      <c r="M271" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="2:15">
       <c r="B272" s="2" t="s">
         <v>356</v>
       </c>
@@ -11223,8 +12327,12 @@
       <c r="L272" s="5">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="273" spans="1:14">
+      <c r="M272" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15">
       <c r="B273" s="2" t="s">
         <v>356</v>
       </c>
@@ -11252,8 +12360,12 @@
       <c r="L273" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:14">
+      <c r="M273" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15">
       <c r="B274" s="2" t="s">
         <v>356</v>
       </c>
@@ -11281,8 +12393,12 @@
       <c r="L274" s="5">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="275" spans="1:14">
+      <c r="M274" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15">
       <c r="A275" s="6" t="s">
         <v>522</v>
       </c>
@@ -11316,8 +12432,12 @@
       <c r="L275" s="5">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" ht="28">
+      <c r="M275" s="5">
+        <f t="shared" si="4"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15">
       <c r="B276" s="2" t="s">
         <v>356</v>
       </c>
@@ -11345,8 +12465,12 @@
       <c r="L276" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" ht="28">
+      <c r="M276" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" ht="28">
       <c r="B277" s="2" t="s">
         <v>356</v>
       </c>
@@ -11374,14 +12498,18 @@
       <c r="L277" s="5">
         <v>0.26</v>
       </c>
-      <c r="M277" s="2">
+      <c r="M277" s="5">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="N277" s="2">
         <v>2016</v>
       </c>
-      <c r="N277" s="2" t="s">
+      <c r="O277" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:15">
       <c r="B278" s="2" t="s">
         <v>356</v>
       </c>
@@ -11409,8 +12537,12 @@
       <c r="L278" s="5">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" ht="28">
+      <c r="M278" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15">
       <c r="B279" s="2" t="s">
         <v>356</v>
       </c>
@@ -11438,11 +12570,15 @@
       <c r="L279" s="5">
         <v>0.64</v>
       </c>
-      <c r="N279" s="2" t="s">
+      <c r="M279" s="5">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="O279" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:15">
       <c r="A280" s="6" t="s">
         <v>522</v>
       </c>
@@ -11476,11 +12612,15 @@
       <c r="L280" s="5">
         <v>0.8</v>
       </c>
-      <c r="N280" s="2" t="s">
+      <c r="M280" s="5">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="O280" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:15">
       <c r="B281" s="2" t="s">
         <v>356</v>
       </c>
@@ -11508,8 +12648,12 @@
       <c r="L281" s="5">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="282" spans="1:14">
+      <c r="M281" s="5">
+        <f t="shared" si="4"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" ht="28">
       <c r="B282" s="2" t="s">
         <v>356</v>
       </c>
@@ -11537,11 +12681,15 @@
       <c r="L282" s="5">
         <v>0.61</v>
       </c>
-      <c r="N282" s="2" t="s">
+      <c r="M282" s="5">
+        <f t="shared" si="4"/>
+        <v>0.61</v>
+      </c>
+      <c r="O282" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="283" spans="1:14" ht="28">
+    <row r="283" spans="1:15" ht="28">
       <c r="B283" s="2" t="s">
         <v>356</v>
       </c>
@@ -11569,11 +12717,15 @@
       <c r="L283" s="5">
         <v>0.22</v>
       </c>
-      <c r="N283" s="2" t="s">
+      <c r="M283" s="5">
+        <f t="shared" si="4"/>
+        <v>0.22</v>
+      </c>
+      <c r="O283" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="284" spans="1:14" ht="42">
+    <row r="284" spans="1:15">
       <c r="B284" s="2" t="s">
         <v>356</v>
       </c>
@@ -11601,8 +12753,12 @@
       <c r="L284" s="5">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="285" spans="1:14">
+      <c r="M284" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15">
       <c r="B285" s="2" t="s">
         <v>356</v>
       </c>
@@ -11630,11 +12786,15 @@
       <c r="L285" s="5">
         <v>0.64</v>
       </c>
-      <c r="N285" s="2" t="s">
+      <c r="M285" s="5">
+        <f t="shared" si="4"/>
+        <v>0.64</v>
+      </c>
+      <c r="O285" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="28">
+    <row r="286" spans="1:15">
       <c r="B286" s="2" t="s">
         <v>356</v>
       </c>
@@ -11662,8 +12822,12 @@
       <c r="L286" s="5">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="287" spans="1:14">
+      <c r="M286" s="5">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15">
       <c r="B287" s="2" t="s">
         <v>356</v>
       </c>
@@ -11691,8 +12855,12 @@
       <c r="L287" s="5">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="288" spans="1:14">
+      <c r="M287" s="5">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15">
       <c r="B288" s="2" t="s">
         <v>356</v>
       </c>
@@ -11720,11 +12888,15 @@
       <c r="L288" s="5">
         <v>0</v>
       </c>
-      <c r="N288" s="2" t="s">
+      <c r="M288" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O288" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:15" ht="42">
       <c r="B289" s="2" t="s">
         <v>266</v>
       </c>
@@ -11752,11 +12924,15 @@
       <c r="L289" s="5">
         <v>0.03</v>
       </c>
-      <c r="N289" s="2" t="s">
+      <c r="M289" s="5">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="O289" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:15" ht="42">
       <c r="A290" t="s">
         <v>522</v>
       </c>
@@ -11790,11 +12966,15 @@
       <c r="L290" s="5">
         <v>0.13</v>
       </c>
-      <c r="N290" s="2" t="s">
+      <c r="M290" s="5">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O290" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:15">
       <c r="B291" s="2" t="s">
         <v>266</v>
       </c>
@@ -11822,8 +13002,12 @@
       <c r="L291" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="292" spans="1:14">
+      <c r="M291" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" ht="28">
       <c r="B292" s="2" t="s">
         <v>266</v>
       </c>
@@ -11851,11 +13035,15 @@
       <c r="L292" s="5">
         <v>0.06</v>
       </c>
-      <c r="N292" s="2" t="s">
+      <c r="M292" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O292" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:15">
       <c r="B293" s="2" t="s">
         <v>266</v>
       </c>
@@ -11883,8 +13071,12 @@
       <c r="L293" s="5">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="294" spans="1:14">
+      <c r="M293" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" ht="28">
       <c r="B294" s="2" t="s">
         <v>266</v>
       </c>
@@ -11912,11 +13104,15 @@
       <c r="L294" s="5">
         <v>0.11</v>
       </c>
-      <c r="N294" s="2" t="s">
+      <c r="M294" s="5">
+        <f t="shared" si="4"/>
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="O294" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:15">
       <c r="B295" s="2" t="s">
         <v>266</v>
       </c>
@@ -11944,8 +13140,12 @@
       <c r="L295" s="5">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="296" spans="1:14">
+      <c r="M295" s="5">
+        <f t="shared" si="4"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" ht="28">
       <c r="B296" s="2" t="s">
         <v>266</v>
       </c>
@@ -11973,8 +13173,12 @@
       <c r="L296" s="5">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" ht="42">
+      <c r="M296" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" ht="28">
       <c r="A297" t="s">
         <v>522</v>
       </c>
@@ -12008,8 +13212,12 @@
       <c r="L297" s="5">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" ht="42">
+      <c r="M297" s="5">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15">
       <c r="B298" s="2" t="s">
         <v>266</v>
       </c>
@@ -12037,8 +13245,12 @@
       <c r="L298" s="5">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" ht="42">
+      <c r="M298" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" ht="56">
       <c r="B299" s="2" t="s">
         <v>266</v>
       </c>
@@ -12066,11 +13278,15 @@
       <c r="L299" s="5">
         <v>0.4</v>
       </c>
-      <c r="N299" s="2" t="s">
+      <c r="M299" s="5">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999999534E-3</v>
+      </c>
+      <c r="O299" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:15" ht="56">
       <c r="B300" s="2" t="s">
         <v>266</v>
       </c>
@@ -12098,11 +13314,15 @@
       <c r="L300" s="5">
         <v>0.41</v>
       </c>
-      <c r="N300" s="2" t="s">
+      <c r="M300" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O300" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:15" ht="42">
       <c r="B301" s="2" t="s">
         <v>266</v>
       </c>
@@ -12130,11 +13350,15 @@
       <c r="L301" s="5">
         <v>0.44</v>
       </c>
-      <c r="N301" s="2" t="s">
+      <c r="M301" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="O301" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="302" spans="1:14" ht="28">
+    <row r="302" spans="1:15" ht="56">
       <c r="B302" s="2" t="s">
         <v>266</v>
       </c>
@@ -12162,11 +13386,15 @@
       <c r="L302" s="5">
         <v>0.48</v>
       </c>
-      <c r="N302" s="2" t="s">
+      <c r="M302" s="5">
+        <f t="shared" si="4"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="O302" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:15" ht="56">
       <c r="B303" s="2" t="s">
         <v>266</v>
       </c>
@@ -12194,11 +13422,15 @@
       <c r="L303" s="5">
         <v>0.5</v>
       </c>
-      <c r="N303" s="2" t="s">
+      <c r="M303" s="5">
+        <f t="shared" si="4"/>
+        <v>-8.9999999999999969E-2</v>
+      </c>
+      <c r="O303" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:15" ht="28">
       <c r="A304" t="s">
         <v>522</v>
       </c>
@@ -12232,11 +13464,15 @@
       <c r="L304" s="5">
         <v>0.45</v>
       </c>
-      <c r="N304" s="2" t="s">
+      <c r="M304" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.19</v>
+      </c>
+      <c r="O304" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:15">
       <c r="A305" t="s">
         <v>522</v>
       </c>
@@ -12270,8 +13506,12 @@
       <c r="L305" s="5">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="306" spans="1:14">
+      <c r="M305" s="5">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" ht="42">
       <c r="B306" s="2" t="s">
         <v>266</v>
       </c>
@@ -12299,11 +13539,15 @@
       <c r="L306" s="5">
         <v>0.7</v>
       </c>
-      <c r="N306" s="2" t="s">
+      <c r="M306" s="5">
+        <f t="shared" si="4"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="O306" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:15">
       <c r="B307" s="2" t="s">
         <v>266</v>
       </c>
@@ -12331,11 +13575,15 @@
       <c r="L307" s="5">
         <v>0.9</v>
       </c>
-      <c r="N307" s="2" t="s">
+      <c r="M307" s="5">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="O307" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:15" ht="28">
       <c r="B308" s="2" t="s">
         <v>266</v>
       </c>
@@ -12363,8 +13611,12 @@
       <c r="L308" s="5">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="309" spans="1:14">
+      <c r="M308" s="5">
+        <f t="shared" si="4"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" ht="28">
       <c r="B309" s="2" t="s">
         <v>266</v>
       </c>
@@ -12392,8 +13644,12 @@
       <c r="L309" s="5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="310" spans="1:14">
+      <c r="M309" s="5">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" ht="56">
       <c r="B310" s="2" t="s">
         <v>266</v>
       </c>
@@ -12419,11 +13675,15 @@
       <c r="L310" s="5">
         <v>0.24</v>
       </c>
-      <c r="N310" s="2" t="s">
+      <c r="M310" s="5">
+        <f t="shared" si="4"/>
+        <v>0.24</v>
+      </c>
+      <c r="O310" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:15" ht="28">
       <c r="B311" s="2" t="s">
         <v>266</v>
       </c>
@@ -12451,8 +13711,12 @@
       <c r="L311" s="5">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="312" spans="1:14">
+      <c r="M311" s="5">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15">
       <c r="B312" s="2" t="s">
         <v>266</v>
       </c>
@@ -12483,11 +13747,15 @@
       <c r="L312" s="5">
         <v>0.09</v>
       </c>
-      <c r="N312" s="2" t="s">
+      <c r="M312" s="5">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+      <c r="O312" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:15" ht="28">
       <c r="B313" s="2" t="s">
         <v>266</v>
       </c>
@@ -12518,11 +13786,15 @@
       <c r="L313" s="5">
         <v>0.02</v>
       </c>
-      <c r="N313" s="2" t="s">
+      <c r="M313" s="5">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="O313" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:15">
       <c r="A314" t="s">
         <v>522</v>
       </c>
@@ -12553,8 +13825,12 @@
       <c r="L314" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="315" spans="1:14">
+      <c r="M314" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15">
       <c r="A315" t="s">
         <v>522</v>
       </c>
@@ -12585,8 +13861,12 @@
       <c r="L315" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" ht="28">
+      <c r="M315" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.9999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" ht="28">
       <c r="B316" s="2" t="s">
         <v>217</v>
       </c>
@@ -12614,8 +13894,12 @@
       <c r="L316" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="317" spans="1:14">
+      <c r="M316" s="5">
+        <f t="shared" si="4"/>
+        <v>-9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" ht="28">
       <c r="B317" s="2" t="s">
         <v>217</v>
       </c>
@@ -12643,8 +13927,12 @@
       <c r="L317" s="5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" ht="28">
+      <c r="M317" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15">
       <c r="A318" t="s">
         <v>522</v>
       </c>
@@ -12675,8 +13963,12 @@
       <c r="L318" s="5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="319" spans="1:14">
+      <c r="M318" s="5">
+        <f t="shared" si="4"/>
+        <v>-9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" ht="28">
       <c r="B319" s="2" t="s">
         <v>217</v>
       </c>
@@ -12704,8 +13996,12 @@
       <c r="L319" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="320" spans="1:14">
+      <c r="M319" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" ht="28">
       <c r="B320" s="2" t="s">
         <v>217</v>
       </c>
@@ -12733,8 +14029,12 @@
       <c r="L320" s="5">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="321" spans="1:14">
+      <c r="M320" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15">
       <c r="A321" t="s">
         <v>522</v>
       </c>
@@ -12765,8 +14065,12 @@
       <c r="L321" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="322" spans="1:14">
+      <c r="M321" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" ht="28">
       <c r="A322" t="s">
         <v>522</v>
       </c>
@@ -12800,11 +14104,15 @@
       <c r="L322" s="5">
         <v>0.44</v>
       </c>
-      <c r="N322" s="2" t="s">
+      <c r="M322" s="5">
+        <f t="shared" si="4"/>
+        <v>0.31</v>
+      </c>
+      <c r="O322" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="323" spans="1:14" ht="28">
+    <row r="323" spans="1:15" ht="28">
       <c r="B323" s="2" t="s">
         <v>217</v>
       </c>
@@ -12832,8 +14140,12 @@
       <c r="L323" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="324" spans="1:14">
+      <c r="M323" s="5">
+        <f t="shared" ref="M323:M353" si="5">L323-H323</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" ht="28">
       <c r="B324" s="2" t="s">
         <v>217</v>
       </c>
@@ -12861,8 +14173,12 @@
       <c r="L324" s="5">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="325" spans="1:14">
+      <c r="M324" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" ht="28">
       <c r="B325" s="2" t="s">
         <v>217</v>
       </c>
@@ -12890,8 +14206,12 @@
       <c r="L325" s="5">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="326" spans="1:14">
+      <c r="M325" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" ht="28">
       <c r="B326" s="2" t="s">
         <v>217</v>
       </c>
@@ -12919,8 +14239,12 @@
       <c r="L326" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="327" spans="1:14">
+      <c r="M326" s="5">
+        <f t="shared" si="5"/>
+        <v>-4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" ht="28">
       <c r="B327" s="2" t="s">
         <v>217</v>
       </c>
@@ -12948,8 +14272,12 @@
       <c r="L327" s="5">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="328" spans="1:14">
+      <c r="M327" s="5">
+        <f t="shared" si="5"/>
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" ht="28">
       <c r="B328" s="2" t="s">
         <v>217</v>
       </c>
@@ -12977,8 +14305,12 @@
       <c r="L328" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="329" spans="1:14">
+      <c r="M328" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" ht="28">
       <c r="B329" s="2" t="s">
         <v>217</v>
       </c>
@@ -13006,8 +14338,12 @@
       <c r="L329" s="5">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="330" spans="1:14">
+      <c r="M329" s="5">
+        <f t="shared" si="5"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15">
       <c r="A330" t="s">
         <v>522</v>
       </c>
@@ -13041,8 +14377,12 @@
       <c r="L330" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" ht="28">
+      <c r="M330" s="5">
+        <f t="shared" si="5"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" ht="28">
       <c r="A331" t="s">
         <v>522</v>
       </c>
@@ -13076,8 +14416,12 @@
       <c r="L331" s="5">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="332" spans="1:14">
+      <c r="M331" s="5">
+        <f t="shared" si="5"/>
+        <v>-8.9999999999999969E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15">
       <c r="A332" t="s">
         <v>522</v>
       </c>
@@ -13111,8 +14455,12 @@
       <c r="L332" s="5">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" ht="28">
+      <c r="M332" s="5">
+        <f t="shared" si="5"/>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15">
       <c r="B333" s="2" t="s">
         <v>217</v>
       </c>
@@ -13140,8 +14488,12 @@
       <c r="L333" s="5">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" ht="28">
+      <c r="M333" s="5">
+        <f t="shared" si="5"/>
+        <v>-3.999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15">
       <c r="A334" t="s">
         <v>522</v>
       </c>
@@ -13175,8 +14527,12 @@
       <c r="L334" s="5">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="335" spans="1:14">
+      <c r="M334" s="5">
+        <f t="shared" si="5"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" ht="28">
       <c r="A335" t="s">
         <v>522</v>
       </c>
@@ -13207,14 +14563,18 @@
       <c r="L335" s="5">
         <v>0.3</v>
       </c>
-      <c r="M335" s="2">
+      <c r="M335" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.18</v>
+      </c>
+      <c r="N335" s="2">
         <v>2017</v>
       </c>
-      <c r="N335" s="2" t="s">
+      <c r="O335" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:15" ht="28">
       <c r="B336" s="2" t="s">
         <v>217</v>
       </c>
@@ -13242,8 +14602,12 @@
       <c r="L336" s="5">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="337" spans="1:14">
+      <c r="M336" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15">
       <c r="B337" s="2" t="s">
         <v>217</v>
       </c>
@@ -13271,11 +14635,15 @@
       <c r="L337" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N337" s="2" t="s">
+      <c r="M337" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.21000000000000002</v>
+      </c>
+      <c r="O337" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:15" ht="28">
       <c r="A338" t="s">
         <v>522</v>
       </c>
@@ -13309,11 +14677,15 @@
       <c r="L338" s="5">
         <v>0.43</v>
       </c>
-      <c r="N338" s="2" t="s">
+      <c r="M338" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.12000000000000005</v>
+      </c>
+      <c r="O338" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="339" spans="1:14" ht="28">
+    <row r="339" spans="1:15" ht="28">
       <c r="B339" s="2" t="s">
         <v>217</v>
       </c>
@@ -13341,14 +14713,18 @@
       <c r="L339" s="5">
         <v>0.62</v>
       </c>
-      <c r="M339" s="2">
+      <c r="M339" s="5">
+        <f t="shared" si="5"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="N339" s="2">
         <v>2016</v>
       </c>
-      <c r="N339" s="2" t="s">
+      <c r="O339" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:15">
       <c r="B340" s="2" t="s">
         <v>217</v>
       </c>
@@ -13376,8 +14752,12 @@
       <c r="L340" s="5">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="341" spans="1:14">
+      <c r="M340" s="5">
+        <f t="shared" si="5"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15">
       <c r="B341" s="2" t="s">
         <v>217</v>
       </c>
@@ -13405,8 +14785,12 @@
       <c r="L341" s="5">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="342" spans="1:14">
+      <c r="M341" s="5">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" ht="56">
       <c r="B342" s="2" t="s">
         <v>217</v>
       </c>
@@ -13434,14 +14818,18 @@
       <c r="L342" s="5">
         <v>0.71</v>
       </c>
-      <c r="M342" s="2">
+      <c r="M342" s="5">
+        <f t="shared" si="5"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="N342" s="2">
         <v>2016</v>
       </c>
-      <c r="N342" s="2" t="s">
+      <c r="O342" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="343" spans="1:14" ht="42">
+    <row r="343" spans="1:15">
       <c r="A343" t="s">
         <v>522</v>
       </c>
@@ -13472,8 +14860,12 @@
       <c r="L343" s="5">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="344" spans="1:14">
+      <c r="M343" s="5">
+        <f t="shared" si="5"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15">
       <c r="A344" t="s">
         <v>522</v>
       </c>
@@ -13507,8 +14899,12 @@
       <c r="L344" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="345" spans="1:14">
+      <c r="M344" s="5">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15">
       <c r="B345" s="2" t="s">
         <v>217</v>
       </c>
@@ -13536,8 +14932,12 @@
       <c r="L345" s="5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="346" spans="1:14">
+      <c r="M345" s="5">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" ht="28">
       <c r="B346" s="2" t="s">
         <v>217</v>
       </c>
@@ -13568,8 +14968,12 @@
       <c r="L346" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="347" spans="1:14">
+      <c r="M346" s="5">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" ht="28">
       <c r="B347" s="2" t="s">
         <v>217</v>
       </c>
@@ -13600,8 +15004,12 @@
       <c r="L347" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="348" spans="1:14">
+      <c r="M347" s="5">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" ht="28">
       <c r="B348" s="2" t="s">
         <v>217</v>
       </c>
@@ -13629,11 +15037,15 @@
       <c r="L348" s="5">
         <v>0.18</v>
       </c>
-      <c r="N348" s="2" t="s">
+      <c r="M348" s="5">
+        <f t="shared" si="5"/>
+        <v>0.18</v>
+      </c>
+      <c r="O348" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:15" ht="28">
       <c r="B349" s="2" t="s">
         <v>217</v>
       </c>
@@ -13661,8 +15073,12 @@
       <c r="L349" s="5">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" ht="28">
+      <c r="M349" s="5">
+        <f t="shared" si="5"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" ht="28">
       <c r="B350" s="2" t="s">
         <v>217</v>
       </c>
@@ -13688,8 +15104,12 @@
       <c r="L350" s="5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="351" spans="1:14">
+      <c r="M350" s="5">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" ht="28">
       <c r="B351" s="2" t="s">
         <v>217</v>
       </c>
@@ -13720,8 +15140,12 @@
       <c r="L351" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" ht="28">
+      <c r="M351" s="5">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" ht="28">
       <c r="B352" s="2" t="s">
         <v>217</v>
       </c>
@@ -13749,8 +15173,12 @@
       <c r="L352" s="5">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="353" spans="2:12">
+      <c r="M352" s="5">
+        <f t="shared" si="5"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="353" spans="2:13" ht="28">
       <c r="B353" s="2" t="s">
         <v>217</v>
       </c>
@@ -13776,6 +15204,10 @@
         <v>0.11</v>
       </c>
       <c r="L353" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="M353" s="5">
+        <f t="shared" si="5"/>
         <v>0.11</v>
       </c>
     </row>
@@ -13798,7 +15230,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16116,22 +17548,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C8" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey_results" sheetId="1" r:id="rId1"/>
     <sheet name="choice" sheetId="3" r:id="rId2"/>
     <sheet name="source" sheetId="2" r:id="rId3"/>
+    <sheet name="layout" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey_results!$E$1:$O$353</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="555">
   <si>
     <t xml:space="preserve">Preferred provider organization (PPO) </t>
   </si>
@@ -1644,6 +1645,51 @@
   </si>
   <si>
     <t>Society for Human Resource Management</t>
+  </si>
+  <si>
+    <t>If YES, we focus on it in the analysis</t>
+  </si>
+  <si>
+    <t>What category the benefit is classified under</t>
+  </si>
+  <si>
+    <t>The categorical slug the benefit is classied under</t>
+  </si>
+  <si>
+    <t>The benefit's subcategory</t>
+  </si>
+  <si>
+    <t>The proper description of the benefit</t>
+  </si>
+  <si>
+    <t>Is it new since the last survey?</t>
+  </si>
+  <si>
+    <t>Whether the five-year change in the benefit's prevalence was an Increase or Decrease for those where focus = YES</t>
+  </si>
+  <si>
+    <t>The benefit's prevalence in the 2013 survey</t>
+  </si>
+  <si>
+    <t>The benefit's prevalence in the 2014 survey</t>
+  </si>
+  <si>
+    <t>The benefit's prevalence in the 2015 survey</t>
+  </si>
+  <si>
+    <t>The benefit's prevalence in the 2016 survey</t>
+  </si>
+  <si>
+    <t>The benefit's prevalence in the 2017 survey</t>
+  </si>
+  <si>
+    <t>The percent change between the benefit's 2013 and 2017 survey prevalence</t>
+  </si>
+  <si>
+    <t>What, if any, years are uncomparable for the benefit's prevalence?</t>
+  </si>
+  <si>
+    <t>Additional notes about the benefit</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2176,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="112">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2243,6 +2289,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2278,7 +2338,7 @@
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="112">
+  <cellStyles count="126">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2342,6 +2402,13 @@
     <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -2382,6 +2449,13 @@
     <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2670,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15230,7 +15304,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17612,4 +17686,275 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>524</v>
+      </c>
+      <c r="B15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>519</v>
+      </c>
+      <c r="B16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>520</v>
+      </c>
+      <c r="B17" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>521</v>
+      </c>
+      <c r="B20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>510</v>
+      </c>
+      <c r="B21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>511</v>
+      </c>
+      <c r="B23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>512</v>
+      </c>
+      <c r="B24" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>513</v>
+      </c>
+      <c r="B25" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>507</v>
+      </c>
+      <c r="B26" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>514</v>
+      </c>
+      <c r="B27" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>515</v>
+      </c>
+      <c r="B28" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>516</v>
+      </c>
+      <c r="B29" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>517</v>
+      </c>
+      <c r="B30" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>518</v>
+      </c>
+      <c r="B31" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>524</v>
+      </c>
+      <c r="B32" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>519</v>
+      </c>
+      <c r="B33" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>520</v>
+      </c>
+      <c r="B34" t="s">
+        <v>554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>